--- a/biology/Histoire de la zoologie et de la botanique/Vladimir_Chimkevitch/Vladimir_Chimkevitch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vladimir_Chimkevitch/Vladimir_Chimkevitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Mikhaïlovitch Chimkevitch (en russe : Владимир Михайлович Шимкевич ; nom d'origine polonaise : Szymkiewicz) est un zoologiste russe, né le 9 août 1858 à Karatchev et mort le 23 février 1923 à Petrograd.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il poursuit ses études secondaires au prestigieux lycée n°4 de Moscou. Après ses études à l’université impériale de Moscou en 1881, il devient professeur au cabinet de zootechnie de Saint-Pétersbourg en 1886 à l’invitation de son directeur, Nikolaï Wagner (1829-1907), qu’il remplace trois ans plus tard. Il occupe cette fonction pendant trente-sept ans. Le 6 novembre 1920, il devient membre de l’Académie des sciences de Russie.
 Ce défenseur des thèses de Charles Darwin (1809-1882) fait paraître un grand nombre de publications scientifiques et vulgarisatrices. Il est recteur de l'université de Pétrograd en 1919-1922 pendant la période troublée de la guerre civile russe et juste avant l'épuration des intellectuels de 1922. Il meurt quelques mois plus tard.
